--- a/artfynd/Holmtjärnen artfynd.xlsx
+++ b/artfynd/Holmtjärnen artfynd.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>112435885</v>
+        <v>96972425</v>
       </c>
       <c r="B2" t="n">
-        <v>92727</v>
+        <v>78980</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -691,34 +691,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2079</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>681590</v>
+        <v>680875</v>
       </c>
       <c r="R2" t="n">
-        <v>7102624</v>
+        <v>7102579</v>
       </c>
       <c r="S2" t="n">
         <v>10</v>
@@ -745,12 +748,12 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -759,6 +762,7 @@
       <c r="AE2" t="b">
         <v>0</v>
       </c>
+      <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="b">
         <v>0</v>
       </c>
@@ -781,10 +785,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>96972425</v>
+        <v>112435885</v>
       </c>
       <c r="B3" t="n">
-        <v>78980</v>
+        <v>92727</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -792,37 +796,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>2079</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
-      <c r="K3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>680875</v>
+        <v>681590</v>
       </c>
       <c r="R3" t="n">
-        <v>7102579</v>
+        <v>7102624</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -849,12 +850,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -863,7 +864,6 @@
       <c r="AE3" t="b">
         <v>0</v>
       </c>
-      <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="b">
         <v>0</v>
       </c>
@@ -987,10 +987,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>112435859</v>
+        <v>96972388</v>
       </c>
       <c r="B5" t="n">
-        <v>90283</v>
+        <v>79569</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -998,34 +998,37 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1962</v>
+        <v>229821</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Vedflamlav</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Ramboldia elabens</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(Fr.) Kantvilas &amp; Elix</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="N5" t="inlineStr"/>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>681032</v>
+        <v>680910</v>
       </c>
       <c r="R5" t="n">
-        <v>7101956</v>
+        <v>7102212</v>
       </c>
       <c r="S5" t="n">
         <v>10</v>
@@ -1052,12 +1055,12 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1066,6 +1069,7 @@
       <c r="AE5" t="b">
         <v>0</v>
       </c>
+      <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="b">
         <v>0</v>
       </c>
@@ -1088,10 +1092,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>96972388</v>
+        <v>112435859</v>
       </c>
       <c r="B6" t="n">
-        <v>79569</v>
+        <v>90283</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1099,37 +1103,34 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>229821</v>
+        <v>1962</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Vedflamlav</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Ramboldia elabens</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Kantvilas &amp; Elix</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
       <c r="P6" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>680910</v>
+        <v>681032</v>
       </c>
       <c r="R6" t="n">
-        <v>7102212</v>
+        <v>7101956</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1156,12 +1157,12 @@
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1170,7 +1171,6 @@
       <c r="AE6" t="b">
         <v>0</v>
       </c>
-      <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="b">
         <v>0</v>
       </c>
@@ -1312,10 +1312,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112435861</v>
+        <v>112435878</v>
       </c>
       <c r="B8" t="n">
-        <v>78980</v>
+        <v>92551</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,34 +1323,34 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>6425</v>
+        <v>2059</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>680918</v>
+        <v>681482</v>
       </c>
       <c r="R8" t="n">
-        <v>7102069</v>
+        <v>7102755</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1413,10 +1413,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112435884</v>
+        <v>112435876</v>
       </c>
       <c r="B9" t="n">
-        <v>80083</v>
+        <v>92529</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1424,21 +1424,21 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6458</v>
+        <v>4362</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1448,10 +1448,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>681468</v>
+        <v>681448</v>
       </c>
       <c r="R9" t="n">
-        <v>7102819</v>
+        <v>7102787</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1492,7 +1492,6 @@
       <c r="AE9" t="b">
         <v>0</v>
       </c>
-      <c r="AF9" t="inlineStr"/>
       <c r="AG9" t="b">
         <v>0</v>
       </c>
@@ -1515,10 +1514,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112435878</v>
+        <v>112435861</v>
       </c>
       <c r="B10" t="n">
-        <v>92551</v>
+        <v>78980</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1526,34 +1525,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>2059</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>681482</v>
+        <v>680918</v>
       </c>
       <c r="R10" t="n">
-        <v>7102755</v>
+        <v>7102069</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1616,10 +1615,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112435876</v>
+        <v>112435884</v>
       </c>
       <c r="B11" t="n">
-        <v>92529</v>
+        <v>80083</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1627,21 +1626,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4362</v>
+        <v>6458</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1651,10 +1650,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>681448</v>
+        <v>681468</v>
       </c>
       <c r="R11" t="n">
-        <v>7102787</v>
+        <v>7102819</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1695,6 +1694,7 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>112435860</v>
+        <v>96972336</v>
       </c>
       <c r="B14" t="n">
-        <v>92551</v>
+        <v>78647</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1934,34 +1934,37 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2059</v>
+        <v>353</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>681032</v>
+        <v>681148</v>
       </c>
       <c r="R14" t="n">
-        <v>7101956</v>
+        <v>7102244</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1988,12 +1991,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2002,6 +2005,7 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
+      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2024,10 +2028,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112435887</v>
+        <v>112435860</v>
       </c>
       <c r="B15" t="n">
-        <v>92727</v>
+        <v>92551</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2035,34 +2039,34 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2079</v>
+        <v>2059</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>681505</v>
+        <v>681032</v>
       </c>
       <c r="R15" t="n">
-        <v>7102856</v>
+        <v>7101956</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2125,32 +2129,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112435871</v>
+        <v>112435887</v>
       </c>
       <c r="B16" t="n">
-        <v>90001</v>
+        <v>92727</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>6276</v>
+        <v>2079</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2160,10 +2164,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>681561</v>
+        <v>681505</v>
       </c>
       <c r="R16" t="n">
-        <v>7102667</v>
+        <v>7102856</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2226,48 +2230,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>96972336</v>
+        <v>112435871</v>
       </c>
       <c r="B17" t="n">
-        <v>78647</v>
+        <v>90001</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>353</v>
+        <v>6276</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
-      <c r="K17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>681148</v>
+        <v>681561</v>
       </c>
       <c r="R17" t="n">
-        <v>7102244</v>
+        <v>7102667</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2294,12 +2295,12 @@
       </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA17" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD17" t="b">
@@ -2308,7 +2309,6 @@
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
       </c>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>96972410</v>
+        <v>112435883</v>
       </c>
       <c r="B24" t="n">
-        <v>79598</v>
+        <v>80083</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2956,37 +2956,34 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>680970</v>
+        <v>681461</v>
       </c>
       <c r="R24" t="n">
-        <v>7102473</v>
+        <v>7102844</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3013,12 +3010,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3027,7 +3024,6 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
-      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3050,10 +3046,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>112435883</v>
+        <v>96972410</v>
       </c>
       <c r="B25" t="n">
-        <v>80083</v>
+        <v>79598</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3061,34 +3057,37 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>681461</v>
+        <v>680970</v>
       </c>
       <c r="R25" t="n">
-        <v>7102844</v>
+        <v>7102473</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3115,12 +3114,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3129,6 +3128,7 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
+      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3256,10 +3256,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112435865</v>
+        <v>112435879</v>
       </c>
       <c r="B27" t="n">
-        <v>5492</v>
+        <v>92551</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3267,34 +3267,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>101410</v>
+        <v>2059</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>681112</v>
+        <v>681445</v>
       </c>
       <c r="R27" t="n">
-        <v>7102060</v>
+        <v>7102785</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3357,10 +3357,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112435879</v>
+        <v>112435865</v>
       </c>
       <c r="B28" t="n">
-        <v>92551</v>
+        <v>5492</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3368,34 +3368,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>2059</v>
+        <v>101410</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>681445</v>
+        <v>681112</v>
       </c>
       <c r="R28" t="n">
-        <v>7102785</v>
+        <v>7102060</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3560,48 +3560,51 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>112435888</v>
+        <v>96972433</v>
       </c>
       <c r="B30" t="n">
-        <v>90283</v>
+        <v>91406</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1962</v>
+        <v>1503</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Gräddporing</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Sidera lenis</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(P.Karst.) Miettinen</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="N30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>681524</v>
+        <v>680970</v>
       </c>
       <c r="R30" t="n">
-        <v>7102855</v>
+        <v>7102176</v>
       </c>
       <c r="S30" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T30" t="inlineStr">
         <is>
@@ -3625,12 +3628,12 @@
       </c>
       <c r="Y30" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AA30" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -3639,6 +3642,7 @@
       <c r="AE30" t="b">
         <v>0</v>
       </c>
+      <c r="AF30" t="inlineStr"/>
       <c r="AG30" t="b">
         <v>0</v>
       </c>
@@ -3661,10 +3665,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112435864</v>
+        <v>112435867</v>
       </c>
       <c r="B31" t="n">
-        <v>78647</v>
+        <v>92727</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3672,21 +3676,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>353</v>
+        <v>2079</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -3696,10 +3700,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>681114</v>
+        <v>681124</v>
       </c>
       <c r="R31" t="n">
-        <v>7102155</v>
+        <v>7101874</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -3762,10 +3766,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112435867</v>
+        <v>112435888</v>
       </c>
       <c r="B32" t="n">
-        <v>92727</v>
+        <v>90283</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3773,37 +3777,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2079</v>
+        <v>1962</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>681124</v>
+        <v>681524</v>
       </c>
       <c r="R32" t="n">
-        <v>7101874</v>
+        <v>7102855</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3863,48 +3867,45 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>96972433</v>
+        <v>112435864</v>
       </c>
       <c r="B33" t="n">
-        <v>91406</v>
+        <v>78647</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>1503</v>
+        <v>353</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Gräddporing</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Sidera lenis</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>(P.Karst.) Miettinen</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I33" t="inlineStr"/>
-      <c r="J33" t="inlineStr"/>
-      <c r="K33" t="inlineStr"/>
-      <c r="N33" t="inlineStr"/>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>680970</v>
+        <v>681114</v>
       </c>
       <c r="R33" t="n">
-        <v>7102176</v>
+        <v>7102155</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -3931,12 +3932,12 @@
       </c>
       <c r="Y33" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA33" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -3945,7 +3946,6 @@
       <c r="AE33" t="b">
         <v>0</v>
       </c>
-      <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="b">
         <v>0</v>
       </c>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112435874</v>
+        <v>112436031</v>
       </c>
       <c r="B34" t="n">
-        <v>79598</v>
+        <v>92529</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3979,34 +3979,34 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>681499</v>
+        <v>681216</v>
       </c>
       <c r="R34" t="n">
-        <v>7102758</v>
+        <v>7101788</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112435873</v>
+        <v>112435874</v>
       </c>
       <c r="B35" t="n">
-        <v>92551</v>
+        <v>79598</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4080,21 +4080,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4104,10 +4104,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>681535</v>
+        <v>681499</v>
       </c>
       <c r="R35" t="n">
-        <v>7102684</v>
+        <v>7102758</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4271,10 +4271,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112436031</v>
+        <v>112435873</v>
       </c>
       <c r="B37" t="n">
-        <v>92529</v>
+        <v>92551</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4282,34 +4282,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>4362</v>
+        <v>2059</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>681216</v>
+        <v>681535</v>
       </c>
       <c r="R37" t="n">
-        <v>7101788</v>
+        <v>7102684</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>

--- a/artfynd/Holmtjärnen artfynd.xlsx
+++ b/artfynd/Holmtjärnen artfynd.xlsx
@@ -1312,10 +1312,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>112435878</v>
+        <v>112435884</v>
       </c>
       <c r="B8" t="n">
-        <v>92551</v>
+        <v>80083</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1323,21 +1323,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2059</v>
+        <v>6458</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1347,10 +1347,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>681482</v>
+        <v>681468</v>
       </c>
       <c r="R8" t="n">
-        <v>7102755</v>
+        <v>7102819</v>
       </c>
       <c r="S8" t="n">
         <v>10</v>
@@ -1391,6 +1391,7 @@
       <c r="AE8" t="b">
         <v>0</v>
       </c>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="b">
         <v>0</v>
       </c>
@@ -1413,10 +1414,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>112435876</v>
+        <v>112435861</v>
       </c>
       <c r="B9" t="n">
-        <v>92529</v>
+        <v>78980</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1424,34 +1425,34 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4362</v>
+        <v>6425</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>681448</v>
+        <v>680918</v>
       </c>
       <c r="R9" t="n">
-        <v>7102787</v>
+        <v>7102069</v>
       </c>
       <c r="S9" t="n">
         <v>10</v>
@@ -1514,10 +1515,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>112435861</v>
+        <v>112435878</v>
       </c>
       <c r="B10" t="n">
-        <v>78980</v>
+        <v>92551</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1525,34 +1526,34 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>6425</v>
+        <v>2059</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>680918</v>
+        <v>681482</v>
       </c>
       <c r="R10" t="n">
-        <v>7102069</v>
+        <v>7102755</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1615,10 +1616,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>112435884</v>
+        <v>112435876</v>
       </c>
       <c r="B11" t="n">
-        <v>80083</v>
+        <v>92529</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1626,21 +1627,21 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6458</v>
+        <v>4362</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
@@ -1650,10 +1651,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>681468</v>
+        <v>681448</v>
       </c>
       <c r="R11" t="n">
-        <v>7102819</v>
+        <v>7102787</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1694,7 +1695,6 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
       </c>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>96972336</v>
+        <v>112435887</v>
       </c>
       <c r="B14" t="n">
-        <v>78647</v>
+        <v>92727</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1934,37 +1934,34 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>353</v>
+        <v>2079</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q14" t="n">
-        <v>681148</v>
+        <v>681505</v>
       </c>
       <c r="R14" t="n">
-        <v>7102244</v>
+        <v>7102856</v>
       </c>
       <c r="S14" t="n">
         <v>10</v>
@@ -1991,12 +1988,12 @@
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA14" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD14" t="b">
@@ -2005,7 +2002,6 @@
       <c r="AE14" t="b">
         <v>0</v>
       </c>
-      <c r="AF14" t="inlineStr"/>
       <c r="AG14" t="b">
         <v>0</v>
       </c>
@@ -2028,10 +2024,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>112435860</v>
+        <v>96972336</v>
       </c>
       <c r="B15" t="n">
-        <v>92551</v>
+        <v>78647</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2039,34 +2035,37 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>2059</v>
+        <v>353</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>681032</v>
+        <v>681148</v>
       </c>
       <c r="R15" t="n">
-        <v>7101956</v>
+        <v>7102244</v>
       </c>
       <c r="S15" t="n">
         <v>10</v>
@@ -2093,12 +2092,12 @@
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AA15" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2107,6 +2106,7 @@
       <c r="AE15" t="b">
         <v>0</v>
       </c>
+      <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
       </c>
@@ -2129,32 +2129,32 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>112435887</v>
+        <v>112435871</v>
       </c>
       <c r="B16" t="n">
-        <v>92727</v>
+        <v>90001</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2079</v>
+        <v>6276</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Goliatmusseron</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Tricholoma matsutake</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(S.Ito &amp; S.Imai) Singer</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>681505</v>
+        <v>681561</v>
       </c>
       <c r="R16" t="n">
-        <v>7102856</v>
+        <v>7102667</v>
       </c>
       <c r="S16" t="n">
         <v>10</v>
@@ -2230,45 +2230,45 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>112435871</v>
+        <v>112435860</v>
       </c>
       <c r="B17" t="n">
-        <v>90001</v>
+        <v>92551</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6276</v>
+        <v>2059</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Goliatmusseron</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tricholoma matsutake</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(S.Ito &amp; S.Imai) Singer</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>681561</v>
+        <v>681032</v>
       </c>
       <c r="R17" t="n">
-        <v>7102667</v>
+        <v>7101956</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2436,10 +2436,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>96972359</v>
+        <v>112435863</v>
       </c>
       <c r="B19" t="n">
-        <v>80084</v>
+        <v>91259</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2447,37 +2447,34 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>2081</v>
+        <v>1204</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
-      <c r="K19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>680962</v>
+        <v>681051</v>
       </c>
       <c r="R19" t="n">
-        <v>7102244</v>
+        <v>7102087</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2504,12 +2501,12 @@
       </c>
       <c r="Y19" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA19" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2518,7 +2515,6 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
       </c>
@@ -2541,10 +2537,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>112435863</v>
+        <v>96972359</v>
       </c>
       <c r="B20" t="n">
-        <v>91259</v>
+        <v>80084</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2552,34 +2548,37 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1204</v>
+        <v>2081</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>681051</v>
+        <v>680962</v>
       </c>
       <c r="R20" t="n">
-        <v>7102087</v>
+        <v>7102244</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2606,12 +2605,12 @@
       </c>
       <c r="Y20" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AA20" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AD20" t="b">
@@ -2620,6 +2619,7 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
       </c>
@@ -2945,10 +2945,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>112435883</v>
+        <v>96972410</v>
       </c>
       <c r="B24" t="n">
-        <v>80083</v>
+        <v>79598</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2956,34 +2956,37 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6458</v>
+        <v>6453</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Lunglav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Lobaria pulmonaria</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(L.) Hoffm.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
       <c r="P24" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>681461</v>
+        <v>680970</v>
       </c>
       <c r="R24" t="n">
-        <v>7102844</v>
+        <v>7102473</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3010,12 +3013,12 @@
       </c>
       <c r="Y24" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AA24" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AD24" t="b">
@@ -3024,6 +3027,7 @@
       <c r="AE24" t="b">
         <v>0</v>
       </c>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="b">
         <v>0</v>
       </c>
@@ -3046,10 +3050,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>96972410</v>
+        <v>112435883</v>
       </c>
       <c r="B25" t="n">
-        <v>79598</v>
+        <v>80083</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3057,37 +3061,34 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6453</v>
+        <v>6458</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Lunglav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Lobaria pulmonaria</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(L.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
-      <c r="J25" t="inlineStr"/>
-      <c r="K25" t="inlineStr"/>
-      <c r="N25" t="inlineStr"/>
       <c r="P25" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>680970</v>
+        <v>681461</v>
       </c>
       <c r="R25" t="n">
-        <v>7102473</v>
+        <v>7102844</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3114,12 +3115,12 @@
       </c>
       <c r="Y25" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA25" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD25" t="b">
@@ -3128,7 +3129,6 @@
       <c r="AE25" t="b">
         <v>0</v>
       </c>
-      <c r="AF25" t="inlineStr"/>
       <c r="AG25" t="b">
         <v>0</v>
       </c>
@@ -3151,10 +3151,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>96972430</v>
+        <v>112435879</v>
       </c>
       <c r="B26" t="n">
-        <v>78647</v>
+        <v>92551</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3162,37 +3162,34 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>353</v>
+        <v>2059</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="J26" t="inlineStr"/>
-      <c r="K26" t="inlineStr"/>
-      <c r="N26" t="inlineStr"/>
       <c r="P26" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>680985</v>
+        <v>681445</v>
       </c>
       <c r="R26" t="n">
-        <v>7102166</v>
+        <v>7102785</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3219,12 +3216,12 @@
       </c>
       <c r="Y26" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA26" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD26" t="b">
@@ -3233,7 +3230,6 @@
       <c r="AE26" t="b">
         <v>0</v>
       </c>
-      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="b">
         <v>0</v>
       </c>
@@ -3256,10 +3252,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112435879</v>
+        <v>112435865</v>
       </c>
       <c r="B27" t="n">
-        <v>92551</v>
+        <v>5492</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3267,34 +3263,34 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2059</v>
+        <v>101410</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Reliktbock</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Nothorhina muricata</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Dalman, 1817)</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>681445</v>
+        <v>681112</v>
       </c>
       <c r="R27" t="n">
-        <v>7102785</v>
+        <v>7102060</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3357,10 +3353,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>112435865</v>
+        <v>96972430</v>
       </c>
       <c r="B28" t="n">
-        <v>5492</v>
+        <v>78647</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3368,34 +3364,37 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>101410</v>
+        <v>353</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Reliktbock</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Nothorhina muricata</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Dalman, 1817)</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>681112</v>
+        <v>680985</v>
       </c>
       <c r="R28" t="n">
-        <v>7102060</v>
+        <v>7102166</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3422,12 +3421,12 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AA28" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3436,6 +3435,7 @@
       <c r="AE28" t="b">
         <v>0</v>
       </c>
+      <c r="AF28" t="inlineStr"/>
       <c r="AG28" t="b">
         <v>0</v>
       </c>
@@ -3665,10 +3665,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>112435867</v>
+        <v>112435888</v>
       </c>
       <c r="B31" t="n">
-        <v>92727</v>
+        <v>90283</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3676,37 +3676,37 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>2079</v>
+        <v>1962</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nordtagging</t>
+          <t>Vaddporing</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Odonticium romellii</t>
+          <t>Anomoporia kamtschatica</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(S.Lundell) Parmasto</t>
+          <t>(Parmasto) Bondartseva</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="P31" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>681124</v>
+        <v>681524</v>
       </c>
       <c r="R31" t="n">
-        <v>7101874</v>
+        <v>7102855</v>
       </c>
       <c r="S31" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -3766,10 +3766,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>112435888</v>
+        <v>112435867</v>
       </c>
       <c r="B32" t="n">
-        <v>90283</v>
+        <v>92727</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3777,37 +3777,37 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1962</v>
+        <v>2079</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vaddporing</t>
+          <t>Nordtagging</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Anomoporia kamtschatica</t>
+          <t>Odonticium romellii</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Parmasto) Bondartseva</t>
+          <t>(S.Lundell) Parmasto</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>681524</v>
+        <v>681124</v>
       </c>
       <c r="R32" t="n">
-        <v>7102855</v>
+        <v>7101874</v>
       </c>
       <c r="S32" t="n">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -3968,10 +3968,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>112436031</v>
+        <v>96972419</v>
       </c>
       <c r="B34" t="n">
-        <v>92529</v>
+        <v>57817</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3979,34 +3979,38 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4362</v>
+        <v>103021</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blå taggsvamp</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Hydnellum caeruleum</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Hornem.) P.Karst.</t>
+          <t>(Conrad von Baldenstein, 1827)</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Holmtjärnen, Ång</t>
+          <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>681216</v>
+        <v>680921</v>
       </c>
       <c r="R34" t="n">
-        <v>7101788</v>
+        <v>7102506</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4033,12 +4037,17 @@
       </c>
       <c r="Y34" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
         </is>
       </c>
       <c r="AA34" t="inlineStr">
         <is>
-          <t>2023-09-18</t>
+          <t>2021-07-18</t>
+        </is>
+      </c>
+      <c r="AC34" t="inlineStr">
+        <is>
+          <t>två individer</t>
         </is>
       </c>
       <c r="AD34" t="b">
@@ -4069,10 +4078,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>112435874</v>
+        <v>112435873</v>
       </c>
       <c r="B35" t="n">
-        <v>79598</v>
+        <v>92551</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4080,21 +4089,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6453</v>
+        <v>2059</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Skrovlig taggsvamp</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum scabrosum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4104,10 +4113,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>681499</v>
+        <v>681535</v>
       </c>
       <c r="R35" t="n">
-        <v>7102758</v>
+        <v>7102684</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4170,10 +4179,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>112435862</v>
+        <v>112436031</v>
       </c>
       <c r="B36" t="n">
-        <v>79598</v>
+        <v>92529</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4181,21 +4190,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6453</v>
+        <v>4362</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blå taggsvamp</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Hydnellum caeruleum</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Hornem.) P.Karst.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4205,10 +4214,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>681039</v>
+        <v>681216</v>
       </c>
       <c r="R36" t="n">
-        <v>7102079</v>
+        <v>7101788</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4271,10 +4280,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>112435873</v>
+        <v>112435862</v>
       </c>
       <c r="B37" t="n">
-        <v>92551</v>
+        <v>79598</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4282,34 +4291,34 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>2059</v>
+        <v>6453</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Skrovlig taggsvamp</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Hydnellum scabrosum</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Fr.) E.Larss., K.H.Larss. &amp; Kõljalg</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Långviskasjön, Ång</t>
+          <t>Holmtjärnen, Ång</t>
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>681535</v>
+        <v>681039</v>
       </c>
       <c r="R37" t="n">
-        <v>7102684</v>
+        <v>7102079</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4372,10 +4381,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>96972419</v>
+        <v>112435874</v>
       </c>
       <c r="B38" t="n">
-        <v>57817</v>
+        <v>79598</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4383,38 +4392,34 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>103021</v>
+        <v>6453</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr"/>
-      <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
           <t>Långviskasjön, Ång</t>
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>680921</v>
+        <v>681499</v>
       </c>
       <c r="R38" t="n">
-        <v>7102506</v>
+        <v>7102758</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4441,17 +4446,12 @@
       </c>
       <c r="Y38" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AA38" t="inlineStr">
         <is>
-          <t>2021-07-18</t>
-        </is>
-      </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>två individer</t>
+          <t>2023-09-18</t>
         </is>
       </c>
       <c r="AD38" t="b">
